--- a/exec/enter_vpn_windows/test_case/get support/get_support.xlsx
+++ b/exec/enter_vpn_windows/test_case/get support/get_support.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\enter_vpn_windows\test_case\get support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771BBFD-2A92-4FB9-B8DE-61204DEF59F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BEA1D-6646-4D59-8F15-40253C35E9F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="get_support" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -135,9 +135,6 @@
     <t>The "Get Support" option should clearly visible in the menu bar</t>
   </si>
   <si>
-    <t>check for clicking "Get Support" redirects to support page</t>
-  </si>
-  <si>
     <t>1. Go to Playstore and install SymlexVPN in the desktop.
 2. Open the installed SymlexVPN Application.
 3. Login with proper credentials.
@@ -233,19 +230,6 @@
   </si>
   <si>
     <t>should be well visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to Playstore and install SymlexVPN in the desktop.
-2. Open the installed SymlexVPN Application.
-3. Login with proper credentials.
-4. Go to menubar
-5. try to check if clicking back button redirect to my account page </t>
-  </si>
-  <si>
-    <t>should redirect to my account page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if clicking "back" button redirect to my account page </t>
   </si>
   <si>
     <t>check relevant FAQ content</t>
@@ -393,6 +377,53 @@
     <t>1. app need to be installed
 2. login with credentials</t>
   </si>
+  <si>
+    <t>1. Go to Playstore and install SymlexVPN in the desktop.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials.
+4. Go to menubar
+5. try to check for clicking "Get Support" redirects to support page in website</t>
+  </si>
+  <si>
+    <t>check for clicking "Get Support" redirects to support page in website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if clicking "back" button redirect to server list page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Playstore and install SymlexVPN in the desktop.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials.
+4. Go to menubar
+5. try to check if clicking "back" button redirect to server list page </t>
+  </si>
+  <si>
+    <t>should redirect to server list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if cursor change after hovering on the support 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Playstore and install SymlexVPN in the desktop.
+2. Open the installed SymlexVPN Application.
+3. Login with proper credentials.
+4. Go to menubar
+5. try to check if cursor change after hovering on the support </t>
+  </si>
+  <si>
+    <t>cursor should change</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_SYM_GSF_0021</t>
+  </si>
+  <si>
+    <t>app need to be installed and login with proper 
+credentials</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -592,48 +623,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,23 +666,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -698,14 +683,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,14 +1632,14 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
@@ -1662,15 +1650,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>84</v>
+      <c r="A1" s="17" t="s">
+        <v>80</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1692,13 +1680,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1765,7 +1753,9 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1793,9 @@
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
@@ -1839,8 +1831,8 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>87</v>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -1877,12 +1869,14 @@
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="16" t="s">
-        <v>85</v>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>86</v>
+      <c r="C7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>22</v>
@@ -1915,7 +1909,9 @@
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1951,17 +1947,19 @@
     </row>
     <row r="9" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
+      <c r="B9" s="23" t="s">
+        <v>94</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
+      <c r="C9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>8</v>
@@ -1989,17 +1987,19 @@
     </row>
     <row r="10" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2025,22 +2025,22 @@
     </row>
     <row r="11" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>47</v>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2063,22 +2063,22 @@
     </row>
     <row r="12" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2101,22 +2101,22 @@
     </row>
     <row r="13" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
+      <c r="D13" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
+      <c r="E13" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2139,22 +2139,22 @@
     </row>
     <row r="14" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>47</v>
+      <c r="B14" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2177,22 +2177,24 @@
     </row>
     <row r="15" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>47</v>
+      <c r="B15" s="16" t="s">
+        <v>46</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
+      <c r="C15" s="15" t="s">
+        <v>86</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>53</v>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>54</v>
+      <c r="E15" s="25" t="s">
+        <v>88</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2214,22 +2216,22 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>37</v>
+      <c r="A16" s="23" t="s">
+        <v>36</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>47</v>
+      <c r="B16" s="24" t="s">
+        <v>46</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>56</v>
+      <c r="C16" s="26" t="s">
+        <v>52</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>58</v>
+      <c r="D16" s="14" t="s">
+        <v>54</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>57</v>
+      <c r="E16" s="26" t="s">
+        <v>53</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2252,22 +2254,24 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>38</v>
+      <c r="A17" s="23" t="s">
+        <v>37</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>47</v>
+      <c r="B17" s="24" t="s">
+        <v>46</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>59</v>
+      <c r="C17" s="26" t="s">
+        <v>55</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>61</v>
+      <c r="D17" s="14" t="s">
+        <v>57</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>60</v>
+      <c r="E17" s="26" t="s">
+        <v>56</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2290,20 +2294,20 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>39</v>
+      <c r="A18" s="23" t="s">
+        <v>38</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>62</v>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>58</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>63</v>
+      <c r="D18" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>64</v>
+      <c r="E18" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2326,20 +2330,20 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>40</v>
+      <c r="A19" s="23" t="s">
+        <v>39</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
-        <v>65</v>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
+        <v>61</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>66</v>
+      <c r="D19" s="14" t="s">
+        <v>62</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>67</v>
+      <c r="E19" s="26" t="s">
+        <v>63</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2362,22 +2366,22 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>47</v>
+      <c r="D20" s="14" t="s">
+        <v>69</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>72</v>
+      <c r="E20" s="26" t="s">
+        <v>70</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2400,22 +2404,22 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>69</v>
+      <c r="A21" s="23" t="s">
+        <v>65</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>47</v>
+      <c r="B21" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>77</v>
+      <c r="C21" s="26" t="s">
+        <v>73</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>76</v>
+      <c r="D21" s="14" t="s">
+        <v>72</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>75</v>
+      <c r="E21" s="26" t="s">
+        <v>71</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2438,22 +2442,22 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>70</v>
+      <c r="A22" s="23" t="s">
+        <v>66</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>47</v>
+      <c r="B22" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>78</v>
+      <c r="C22" s="26" t="s">
+        <v>74</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>79</v>
+      <c r="D22" s="14" t="s">
+        <v>75</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>80</v>
+      <c r="E22" s="26" t="s">
+        <v>76</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2476,22 +2480,22 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>71</v>
+      <c r="A23" s="23" t="s">
+        <v>67</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>47</v>
+      <c r="B23" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>82</v>
+      <c r="C23" s="26" t="s">
+        <v>78</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>83</v>
+      <c r="D23" s="14" t="s">
+        <v>79</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>81</v>
+      <c r="E23" s="26" t="s">
+        <v>77</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2513,13 +2517,25 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+    <row r="24" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -29594,7 +29610,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F10 F15 F17 F24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
